--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,15 +13,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Setting up Github account, creating templates for progress reports, creating project timeline system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revising project timeline system. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -40,18 +72,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +546,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="113.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>42746</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>42753</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -25,10 +25,28 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>Setting up Github account, creating templates for progress reports, creating project timeline system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revising project timeline system. </t>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Design - Setting up Github account, creating templates for progress reports, creating project timeline system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design - Revising project timeline system. </t>
+  </si>
+  <si>
+    <t>Design - Perfoming Requirement Analysis</t>
+  </si>
+  <si>
+    <t>Design - Revising, writing Introduction, and constructing ER Diagrams</t>
+  </si>
+  <si>
+    <t>Design - Revising</t>
+  </si>
+  <si>
+    <t>Design - Revising ER Diagrams</t>
+  </si>
+  <si>
+    <t>Design - Creating cover page and revising</t>
   </si>
 </sst>
 </file>
@@ -550,14 +568,14 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="113.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -579,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,38 +608,74 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="13">
+        <v>42755</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="13">
+        <v>42760</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="13">
+        <v>42765</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="13">
+        <v>42767</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="13">
+        <v>42770</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="13">
+        <v>42771</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Design - Creating cover page and revising</t>
+  </si>
+  <si>
+    <t>Design - Revising ER Diagrams and Bidding Section</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +681,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="13">
+        <v>42790</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Design - Revising ER Diagrams and Bidding Section</t>
+  </si>
+  <si>
+    <t>Design - Finished revising ER Diagrams, created complete ER Diagram</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,9 +695,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="13">
+        <v>42791</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Design - Finished revising ER Diagrams, created complete ER Diagram</t>
+  </si>
+  <si>
+    <t>Design - Revising, testing SQL Database that was created</t>
   </si>
 </sst>
 </file>
@@ -252,13 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -267,6 +269,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +578,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,214 +600,220 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>42746</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>42753</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>42755</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>42760</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>42765</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>42767</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>42770</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>42771</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>42790</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>42791</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="12">
+        <v>42792</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Design - Revising, testing SQL Database that was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design - Fixing teammates SQL DDL. </t>
   </si>
 </sst>
 </file>
@@ -269,8 +272,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +581,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -721,9 +724,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="14">
+        <v>42793</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Design - Fixing teammates SQL DDL. </t>
+  </si>
+  <si>
+    <t>Design - Fixing sales.sql</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,9 +738,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="12">
+        <v>42794</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -62,12 +62,15 @@
   </si>
   <si>
     <t>Design - Fixing sales.sql</t>
+  </si>
+  <si>
+    <t>Design - Creating Concept art</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +373,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -405,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,7 +621,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,9 +786,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="12">
+        <v>42795</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,23 +373,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -425,23 +408,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,7 +587,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +756,7 @@
         <v>42795</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>16</v>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Design - Creating Concept art</t>
+  </si>
+  <si>
+    <t>Design - Specifying Android application design</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,9 +766,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="12">
+        <v>42796</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>

--- a/ProgressReports/RyanBury_ProgressReport.xlsx
+++ b/ProgressReports/RyanBury_ProgressReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Design - Specifying Android application design</t>
+  </si>
+  <si>
+    <t>Presenting - Creating presentation, revising document</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,9 +780,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="12">
+        <v>42796</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
